--- a/data-2020/9-grade.xlsx
+++ b/data-2020/9-grade.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6890" uniqueCount="2777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="2785">
   <si>
     <t xml:space="preserve">Отметка времени</t>
   </si>
@@ -8351,7 +8351,31 @@
     <t xml:space="preserve">fatimajoldoshovna@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Natural numbers,Linear Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System of equations</t>
+  </si>
+  <si>
     <t xml:space="preserve">2D Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective calculation of large number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinatorics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consecutive numbers, Natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed/Time/Distance</t>
   </si>
 </sst>
 </file>
@@ -8363,7 +8387,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0&quot; / 10&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8400,6 +8424,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8444,7 +8474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8469,6 +8499,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8488,13 +8522,13 @@
   </sheetPr>
   <dimension ref="A1:S1380"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.75"/>
@@ -74114,13 +74148,20 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.65"/>
   </cols>
   <sheetData>
@@ -74157,8 +74198,35 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2777</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>2776</v>
+        <v>2778</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>2781</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2781</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2784</v>
       </c>
     </row>
   </sheetData>

--- a/data-2020/9-grade.xlsx
+++ b/data-2020/9-grade.xlsx
@@ -8369,7 +8369,7 @@
     <t xml:space="preserve">Factorization</t>
   </si>
   <si>
-    <t xml:space="preserve">Consecutive numbers, Natural numbers</t>
+    <t xml:space="preserve">Consecutive numbers,Natural numbers</t>
   </si>
   <si>
     <t xml:space="preserve">Natural numbers</t>
@@ -8387,7 +8387,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0&quot; / 10&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8424,12 +8424,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8499,7 +8493,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8525,10 +8519,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="1" sqref="J:J F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.75"/>
@@ -74148,11 +74142,11 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.17"/>
@@ -74160,9 +74154,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
